--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-689997.5032594878</v>
+        <v>-691885.0847758903</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>67.72038753189351</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>76.32654050176464</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>62.34212692452513</v>
       </c>
       <c r="C4" t="n">
-        <v>60.79152971843325</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>194.9615949646264</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>193.0552439171458</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>88.7069554109369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>219.357303866009</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>124.2160186522857</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78.0850632036653</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>54.70191565295168</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>76.79239300783857</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>267.7066516484282</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>157.2425576766692</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>213.5058537482828</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>21.9654963770172</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>181.8399598283856</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>120.85303432119</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>195.0502645629995</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>78.5979249310292</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>187.8326399421087</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>37.34995075181399</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965528</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>90.21779139437399</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>18.92077583358352</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>55.21598883571475</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523555</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>146.8246940054921</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857146</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1618.50539369077</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2311.261100528459</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>1958.492445258345</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.50539369077</v>
+        <v>1958.492445258345</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.50539369077</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1524.301830724558</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1155.339313784146</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>797.0736151773956</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>411.2853625791514</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>404.3398618299479</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,22 +4562,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2502.143794132216</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2149.375138862102</v>
+        <v>1914.441162700369</v>
       </c>
       <c r="X5" t="n">
-        <v>2149.375138862102</v>
+        <v>1914.441162700369</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>1524.301830724558</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005476</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>383.841510736975</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1447.000728742896</v>
+        <v>1970.914677487027</v>
       </c>
       <c r="C8" t="n">
-        <v>1078.038211802485</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1078.038211802485</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1078.038211802485</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2344.380435748107</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.140060718708</v>
+        <v>1970.914677487027</v>
       </c>
       <c r="Y8" t="n">
-        <v>1447.000728742896</v>
+        <v>1970.914677487027</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.5651556036578</v>
+        <v>154.8539665087369</v>
       </c>
       <c r="C10" t="n">
-        <v>290.5651556036578</v>
+        <v>154.8539665087369</v>
       </c>
       <c r="D10" t="n">
-        <v>290.5651556036578</v>
+        <v>154.8539665087369</v>
       </c>
       <c r="E10" t="n">
-        <v>290.5651556036578</v>
+        <v>154.8539665087369</v>
       </c>
       <c r="F10" t="n">
-        <v>290.5651556036578</v>
+        <v>154.8539665087369</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>154.8539665087369</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>409.5384547146238</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>154.8539665087369</v>
       </c>
       <c r="W10" t="n">
-        <v>290.5651556036578</v>
+        <v>154.8539665087369</v>
       </c>
       <c r="X10" t="n">
-        <v>290.5651556036578</v>
+        <v>154.8539665087369</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.5651556036578</v>
+        <v>154.8539665087369</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,22 +5197,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>973.8210231111786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>745.8314722131613</v>
+        <v>1159.85161622171</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.8314722131613</v>
+        <v>939.0590370781802</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,37 +5273,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>256.0479578003557</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1083.333781939836</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655734</v>
+        <v>1083.333781939836</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286129</v>
+        <v>793.916611902875</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305954</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305954</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.6964226305962</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C19" t="n">
-        <v>437.6964226305962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>287.5797832182604</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>287.5797832182604</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>287.5797832182604</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>119.404461538081</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>119.404461538081</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655741</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286135</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305962</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y19" t="n">
-        <v>437.6964226305962</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,28 +5768,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>355.6416303362488</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>355.6416303362488</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362488</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362488</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383385</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383385</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383385</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1265.767395078122</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1041.981979867628</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>752.8533410811858</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W22" t="n">
-        <v>758.0826743100187</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X22" t="n">
-        <v>758.0826743100187</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y22" t="n">
-        <v>537.2900951664885</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="23">
@@ -5969,34 +5969,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>345.5451177528687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>176.6089348249618</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>755.1831334811258</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>755.1831334811258</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>527.1935825831084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.1935825831084</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609666</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>796.2722772255033</v>
+        <v>820.5263570570735</v>
       </c>
       <c r="W28" t="n">
-        <v>506.8551071885429</v>
+        <v>531.1091870201129</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>303.1196361220956</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>265.3924131404653</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6443,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.7225911205028</v>
+        <v>565.4200295030902</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739667</v>
+        <v>452.2447118565545</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430017</v>
+        <v>357.8889377255898</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430017</v>
+        <v>357.8889377255898</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>266.7598555090505</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.6479607276531</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,13 +6622,13 @@
         <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1936.126063056074</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1787.818291333355</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1554.450517828284</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1355.526894903768</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>1121.870590148178</v>
+        <v>902.6804289818956</v>
       </c>
       <c r="X31" t="n">
-        <v>949.6419045315311</v>
+        <v>730.4517433652493</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.6101906693717</v>
+        <v>565.4200295030902</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6701,25 +6701,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,10 +6856,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6944,43 +6944,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,46 +7157,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7309,31 +7309,31 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
@@ -7357,13 +7357,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7783,19 +7783,19 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,13 +7828,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
@@ -7843,10 +7843,10 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010315</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.6414676374722</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,16 +8778,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>103.0395871740987</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323831</v>
       </c>
       <c r="W13" t="n">
-        <v>18.81634668816281</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>10.00426342195868</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>72.7314986502945</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>88.45374908725478</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>104.6830385082054</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>77.0677756624133</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>91.47273377359147</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>70.01754808718316</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>64.30500338171933</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>181.2347026002808</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180121</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>92.36953600123695</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>19.51961042434006</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26326,7 +26326,7 @@
         <v>195514.5298688544</v>
       </c>
       <c r="G2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="H2" t="n">
         <v>195514.5298688544</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.6053028458</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086673</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284587</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.66962143907</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="H4" t="n">
-        <v>15045.66962143909</v>
-      </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563571</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.4568627596</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26503,10 +26503,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26522,46 +26522,46 @@
         <v>-624341.4730631058</v>
       </c>
       <c r="C6" t="n">
-        <v>-34373.59384856126</v>
+        <v>-34373.59384856132</v>
       </c>
       <c r="D6" t="n">
-        <v>-34373.5938485613</v>
+        <v>-34373.5938485614</v>
       </c>
       <c r="E6" t="n">
-        <v>-436678.5021781973</v>
+        <v>-436775.9613041699</v>
       </c>
       <c r="F6" t="n">
-        <v>88481.53429869864</v>
+        <v>88384.07517272655</v>
       </c>
       <c r="G6" t="n">
-        <v>88481.53429869856</v>
+        <v>88384.07517272657</v>
       </c>
       <c r="H6" t="n">
-        <v>88481.53429869884</v>
+        <v>88384.07517272652</v>
       </c>
       <c r="I6" t="n">
-        <v>88481.53429869868</v>
+        <v>88384.07517272653</v>
       </c>
       <c r="J6" t="n">
-        <v>-87941.68489389424</v>
+        <v>-88039.14401986655</v>
       </c>
       <c r="K6" t="n">
-        <v>29409.96270393116</v>
+        <v>29391.46896599654</v>
       </c>
       <c r="L6" t="n">
-        <v>59737.97298241925</v>
+        <v>59737.97298241939</v>
       </c>
       <c r="M6" t="n">
-        <v>-64720.13545055102</v>
+        <v>-64720.13545055116</v>
       </c>
       <c r="N6" t="n">
-        <v>70080.87978328612</v>
+        <v>70080.87978328607</v>
       </c>
       <c r="O6" t="n">
-        <v>70080.87978328613</v>
+        <v>70080.87978328619</v>
       </c>
       <c r="P6" t="n">
-        <v>25918.27448044042</v>
+        <v>25918.27448044016</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,16 +26750,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108342</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855733</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>297.5525042391141</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>251.4257179683703</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>117.4898532574122</v>
       </c>
       <c r="C4" t="n">
-        <v>106.4552913801946</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>218.8225750561686</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>134.6970145529891</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>59.90851760727546</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592673</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>145.9155879049986</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>282.6600270894258</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>89.22473905538561</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>101.4689731888435</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-2.98632585327141e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35498,16 +35498,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412259</v>
+        <v>67.71102679412277</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043182</v>
+        <v>94.428956600432</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
